--- a/6_publication/1_toPSAil/1_plots/6.0_yang_axial_pressure_drop/data3.xlsx
+++ b/6_publication/1_toPSAil/1_plots/6.0_yang_axial_pressure_drop/data3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tkim333\Documents\GitHub\toPSAil\6_publication\1_toPSAil\1_plots\6.0_yang_axial_pressure_drop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401F4B56-1F1C-473C-8BEC-1C0D999AF3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249D37CB-4313-414E-92FB-6B773868B32F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{A013521F-8CC6-EB48-8DC8-6F77B6AA1B58}"/>
   </bookViews>
@@ -421,7 +421,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -451,22 +451,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2">
-        <v>195</v>
+        <v>139</v>
       </c>
       <c r="E2" s="1">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="F2">
         <v>62</v>
       </c>
       <c r="G2">
-        <v>189</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
